--- a/trend_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/trend_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/trend_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>site name</t>
   </si>
@@ -97,7 +97,7 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,31 +567,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.0591391870997356</v>
+        <v>0.376032554655936</v>
       </c>
       <c r="G2">
-        <v>0.008547008547008499</v>
+        <v>0.0082644628099173</v>
       </c>
       <c r="H2">
-        <v>0.735042735042735</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="K2">
-        <v>24.6429288118885</v>
+        <v>5.23571068321196</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-23.0999027490819</v>
       </c>
       <c r="M2">
-        <v>54.1916378417311</v>
+        <v>31.1625604772168</v>
       </c>
       <c r="N2">
-        <v>10.225281664684</v>
+        <v>1.82428943665922</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -638,31 +638,31 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>0.0074132164008079</v>
+        <v>0.0006317955768651</v>
       </c>
       <c r="G3">
-        <v>0.012448132780083</v>
+        <v>0.00836820083682</v>
       </c>
       <c r="H3">
-        <v>0.684647302904564</v>
+        <v>0.673640167364017</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K3">
-        <v>10.9685746761974</v>
+        <v>14.8048</v>
       </c>
       <c r="L3">
-        <v>3.73211235379034</v>
+        <v>7.43933851825589</v>
       </c>
       <c r="M3">
-        <v>18.75</v>
+        <v>22.7145759091856</v>
       </c>
       <c r="N3">
-        <v>5.45700232646639</v>
+        <v>6.49333333333333</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -709,31 +709,31 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>0.0054426962821505</v>
+        <v>6.905250195898509E-05</v>
       </c>
       <c r="G4">
-        <v>0.0083798882681564</v>
+        <v>0.0082191780821917</v>
       </c>
       <c r="H4">
-        <v>0.592178770949721</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K4">
-        <v>5.73454553822509</v>
+        <v>8.856718410056359</v>
       </c>
       <c r="L4">
-        <v>1.97325036783057</v>
+        <v>5.09179351610489</v>
       </c>
       <c r="M4">
-        <v>9.723771723691931</v>
+        <v>12.9022066112152</v>
       </c>
       <c r="N4">
-        <v>3.08308899904575</v>
+        <v>4.40632756719222</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -760,6 +760,77 @@
         <v>32</v>
       </c>
       <c r="W4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>9.05917056534342E-07</v>
+      </c>
+      <c r="G5">
+        <v>0.008385744234800801</v>
+      </c>
+      <c r="H5">
+        <v>0.528301886792453</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>189</v>
+      </c>
+      <c r="K5">
+        <v>6.84309133489461</v>
+      </c>
+      <c r="L5">
+        <v>4.45069745069745</v>
+      </c>
+      <c r="M5">
+        <v>9.34143222506394</v>
+      </c>
+      <c r="N5">
+        <v>3.62068324597599</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>1789261</v>
+      </c>
+      <c r="R5">
+        <v>5528869</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" t="s">
         <v>33</v>
       </c>
     </row>
